--- a/frontend-cemos/public/assets/content/direito/1-ema-135/script/fc4.xlsx
+++ b/frontend-cemos/public/assets/content/direito/1-ema-135/script/fc4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,12 +501,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quais são as três exceções permitidas à proibição do uso da força entre Estados, conforme o Direito Internacional?</t>
+          <t>Qual foi a resolução que reconheceu pela primeira vez o direito de recorrer à força para permitir o exercício do direito dos povos à autodeterminação?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Legítima defesa (autodefesa) individual ou coletiva, medidas do Conselho de Segurança da ONU e exercício do direito de autodeterminação dos povos.</t>
+          <t>Resolução 2105 (XX) da Assembleia Geral das Nações Unidas, de 20 de dezembro de 1965.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -529,12 +529,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O que a Carta das Nações Unidas detalha, além dos propósitos e princípios da ONU?</t>
+          <t>Quais são as três exceções permitidas à proibição do uso da força entre Estados, conforme o Direito Internacional?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Métodos e processos para soluções pacíficas de controvérsias, cooperação econômica e social e o uso legítimo da força.</t>
+          <t>Permitidas nos casos de legítima defesa (autodefesa) individual ou coletiva, medidas de restabelecimento ou manutenção da paz adotadas pelo Conselho de Segurança e exercício do direito de autodeterminação dos povos (guerras de libertação nacional).</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -557,18 +557,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qual é o principal propósito da ONU em relação à segurança internacional?</t>
+          <t>Qual é o objetivo central do pacto de cooperação estabelecido pela Carta das Nações Unidas entre os Estados-membros?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Manter a paz e segurança internacionais, adotando medidas coletivas eficazes para prevenção e remoção de ameaças à paz.</t>
+          <t>Manter a paz e a segurança internacionais e promover o progresso econômico e social de todos os povos.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pág 71</t>
+          <t>Pág 70</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -585,18 +585,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Quais são os dois principais mandamentos da Carta da ONU, contidos no Art. 2º, §§ 3° e 4°?</t>
+          <t>O que a Carta das Nações Unidas detalha, além dos propósitos e princípios da ONU?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Resolver controvérsias internacionais por meios pacíficos e evitar a ameaça ou o uso da força contra a integridade territorial ou independência política.</t>
+          <t>Métodos e processos para soluções pacíficas de controvérsias, cooperação econômica e social e o uso legítimo da força.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pág 71</t>
+          <t>Pág 70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -613,12 +613,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>O que o Conselho de Segurança determina e decide fazer, conforme o Art. 39 da Carta?</t>
+          <t>Qual é o principal propósito da ONU em relação à segurança internacional?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Determinar a existência de ameaça à paz, ruptura da paz ou ato de agressão e decidir as medidas a serem tomadas (Artigos 41 e 42).</t>
+          <t>Manter a paz e segurança internacionais, adotando medidas coletivas eficazes para prevenção e remoção de ameaças à paz.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -641,18 +641,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cite uma medida que o Conselho de Segurança pode tomar, sem emprego de forças armadas, conforme o Art. 41 da Carta.</t>
+          <t>Quais são os dois principais mandamentos da Carta da ONU, contidos no Art. 2º, §§ 3° e 4°?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Interrupção completa ou parcial das relações econômicas, dos meios de comunicação ou o rompimento das relações diplomáticas.</t>
+          <t>Resolver controvérsias internacionais por meios pacíficos e evitar a ameaça ou o uso da força contra a integridade territorial ou independência política.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Pág 72</t>
+          <t>Pág 71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -669,18 +669,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>O que o Conselho de Segurança pode levar a efeito, conforme o Art. 42, se as medidas não militares forem inadequadas?</t>
+          <t>O que o Conselho de Segurança determina e decide fazer, conforme o Art. 39 da Carta?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ação por meio de forças aéreas, navais ou terrestres, podendo compreender demonstrações e bloqueios.</t>
+          <t>Determinar a existência de ameaça à paz, ruptura da paz ou ato de agressão e decidir as medidas a serem tomadas (Artigos 41 e 42).</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pág 72</t>
+          <t>Pág 71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Medidas diplomáticas incluem quais tipos de ações políticas e qual caráter elas podem ter?</t>
+          <t>Cite uma medida que o Conselho de Segurança pode tomar, sem emprego de forças armadas, conforme o Art. 41 da Carta.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Negociação, conciliação ou mediação, podendo ter caráter cooperativo ou coercitivo.</t>
+          <t>Interrupção completa ou parcial das relações econômicas, dos meios de comunicação ou o rompimento das relações diplomáticas.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -725,18 +725,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>O que significa o Status de "Nação mais favorecida"?</t>
+          <t>O que caracterizam as medidas diplomáticas como instrumentos não militares para a resolução de disputas entre Estados?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Uma concessão na qual um Estado se compromete a estender a outro todas as facilidades que venha a pactuar com outros Estados.</t>
+          <t>São ações políticas adotadas para influenciar o comportamento de outros Estados por meios pacíficos, incluindo negociação, conciliação, mediação e a manifestação da opinião pública na Assembleia Geral da ONU.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 73</t>
+          <t>Pág 72</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -753,18 +753,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cite um exemplo de medida econômica coercitiva utilizada para modificar o comportamento de um Estado.</t>
+          <t>O que o Conselho de Segurança pode levar a efeito, conforme o Art. 42, se as medidas não militares forem inadequadas?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Suspensão de venda de produtos agrícolas, boicote à compra ou venda de petróleo, ou suspensão do status de “Nação mais favorecida”.</t>
+          <t>Ação por meio de forças aéreas, navais ou terrestres, podendo compreender demonstrações e bloqueios.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 73</t>
+          <t>Pág 72</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -781,18 +781,18 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Qual é a condição para que um Estado seja levado perante a Corte Internacional de Justiça (CIJ)?</t>
+          <t>Medidas diplomáticas incluem quais tipos de ações políticas e qual caráter elas podem ter?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>É necessário o consentimento prévio ou específico do Estado.</t>
+          <t>Negociação, conciliação ou mediação, podendo ter caráter **cooperativo** ou **coercitivo**.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 73</t>
+          <t>Pág 72</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -809,18 +809,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Qual é a missão das forças armadas de um Estado em relação a forças hostis?</t>
+          <t>O que significa a concessão do status de “Nação mais favorecida” nas relações econômicas internacionais?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dissuadir forças hostis, engajar e derrotar, e evitar ou neutralizar possíveis ações hostis.</t>
+          <t>É o compromisso assumido por um Estado de estender a outro todas as facilidades comerciais que conceder a quaisquer outros Estados, funcionando como instrumento de política econômica para preservar interesses nacionais.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 74</t>
+          <t>Pág 73</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -837,18 +837,18 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Por que as forças navais podem ser empregadas sem criar constrangimentos políticos, diferentemente das forças terrestres?</t>
+          <t>Cite um exemplo de medida econômica coercitiva utilizada para modificar o comportamento de um Estado.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Porque podem ser empregadas desde que permaneçam em águas e espaço aéreo internacionais, sem necessitar de consentimento do Estado costeiro.</t>
+          <t>Suspensão de venda de produtos agrícolas, boicote à compra ou venda de petróleo e outros produtos pelo Estado Agressor, ou suspensão do status de “Nação mais favorecida”.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 74</t>
+          <t>Pág 73</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -865,18 +865,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>O direito de conduzir manobras militares no alto-mar é incluído na liberdade de navegação para navios de guerra?</t>
+          <t>Um Estado pode submeter unilateralmente outro Estado à jurisdição da Corte Internacional de Justiça (CIJ) em caso de controvérsia?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sim, está incluído no pleno uso da liberdade de navegação e sobrevoo, sujeito a procedimentos de segurança e divulgação prévia.</t>
+          <t>Não. Nenhum Estado pode levar outro à Corte Internacional de Justiça sem o consentimento prévio do Estado demandado, seja ele genérico, antecipado ou específico para a controvérsia.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 74</t>
+          <t>Pág 73</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -893,18 +893,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>O que um Estado deve fazer imediatamente após exercer o direito de legítima defesa (Art. 51)?</t>
+          <t>Qual é a condição para que um Estado seja levado perante a Corte Internacional de Justiça (CIJ)?</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>As medidas tomadas devem ser comunicadas imediatamente ao Conselho de Segurança das Nações Unidas.</t>
+          <t>É necessário o consentimento prévio ou específico do Estado.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pág 75</t>
+          <t>Pág 73</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -921,18 +921,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Qual princípio limita o uso da força em autodefesa à intensidade, duração e lugar estritamente necessários para conter o ataque ou ameaça?</t>
+          <t>Qual é a missão das forças armadas de um Estado em relação a forças hostis?</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Princípio da Proporcionalidade.</t>
+          <t>Dissuadir forças hostis, engajar e derrotar, e evitar ou neutralizar possíveis ações hostis.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pág 75</t>
+          <t>Pág 74</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -949,18 +949,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>O Direito Internacional exige que um Estado ameçado absorva a primeira ação ofensiva do agressor para exercer a autodefesa?</t>
+          <t>Por que as forças navais podem ser empregadas sem criar constrangimentos políticos, diferentemente das forças terrestres?</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Não, o DI reconhece o direito de um Estado em se proteger de um ataque iminente (prestes a se desencadear).</t>
+          <t>Porque desde que permaneçam em águas e espaço aéreo internacionais, navios de guerra e aeronaves militares podem atuar sem o consentimento do Estado costeiro, exercendo plenamente a liberdade de navegação e sobrevoo no alto-mar</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pág 75</t>
+          <t>Pág 74</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -977,18 +977,18 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sobre qual espaço aéreo o Estado exerce soberania completa e exclusiva, além de seu território e águas interiores?</t>
+          <t>O direito de conduzir manobras militares no alto-mar é incluído na liberdade de navegação para navios de guerra?</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>O espaço aéreo sobrejacente ao Mar Territorial (MT).</t>
+          <t>Sim, está incluído no pleno uso da liberdade de navegação e sobrevoo, sujeito a procedimentos de segurança e divulgação prévia.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Pág 76</t>
+          <t>Pág 74</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1005,18 +1005,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cite uma exceção à necessidade de obtenção de autorização para aeronave estrangeira penetrar em espaço aéreo nacional.</t>
+          <t>O que um Estado deve fazer imediatamente após exercer o direito de legítima defesa (Art. 51)?</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sobrevoo em passagem em trânsito de estreitos internacionais, situações de emergência ou entrada para prestar socorro.</t>
+          <t>As medidas tomadas devem ser comunicadas imediatamente ao Conselho de Segurança das Nações Unidas.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Pág 76</t>
+          <t>Pág 75</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1033,21 +1033,217 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>O que a modificação da Convenção de Chicago estabelece que todos os Estados devem evitar na interceptação de aeronaves civis?</t>
+          <t>Qual é o conceito que permite o direito de uso de uma força armada diante da eminência de um ataque.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O uso de armas contra aeronaves civis, garantindo que as vidas do pessoal a bordo e a segurança da aeronave não sejam postas em perigo.</t>
+          <t>Autodefesa Antecipada. (Retirado do Simulado)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
+          <t>Pág 75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cap. 4 - Salvaguarda dos interesses nacionais no mar, em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Qual princípio limita o uso da força em autodefesa à intensidade, duração e lugar estritamente necessários para conter o ataque ou ameaça?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Princípio da Proporcionalidade.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Pág 75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cap. 4 - Salvaguarda dos interesses nacionais no mar, em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Quais são os dois princípios que balizam o uso da força em autodefesa diante de um ataque armado ou de sua iminência?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>O **Princípio da Necessidade**, estabelece que o uso da força seja feito em resposta a ato hostil atual ou iminente, e o **Princípio da Proporcionalidade**, que limita a intensidade, duração e alcance do uso da força ao estritamente necessário para conter o ataque ou ameaça.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pág 75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Cap. 4 - Salvaguarda dos interesses nacionais no mar, em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Segundo o Direito Internacional, um Estado deve aguardar a concretização do primeiro ataque inimigo para exercer seu direito de autodefesa?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Não. O conceito de autodefesa contra ato hostil iminente estabelece que o Estado não precisa esperar a concretização do primeiro ataque para adotar medidas militares, podendo agir diante de ameaça prestes a se desencadear.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Pág 75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Cap. 4 - Salvaguarda dos interesses nacionais no mar, em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sobre qual espaço aéreo o Estado exerce soberania completa e exclusiva, além de seu território e águas interiores?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>O espaço aéreo sobrejacente ao Mar Territorial (MT).</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Pág 76</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Cap. 4 - Salvaguarda dos interesses nacionais no mar, em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cite uma exceção à necessidade de obtenção de autorização para aeronave estrangeira penetrar em espaço aéreo nacional.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sobrevoo em passagem em trânsito de estreitos internacionais, situações de emergência ou entrada para prestar socorro.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Pág 76</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Cap. 4 - Salvaguarda dos interesses nacionais no mar, em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>O que a modificação da Convenção de Chicago estabelece que todos os Estados devem evitar na interceptação de aeronaves civis?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>O uso de armas contra aeronaves civis, garantindo que as vidas do pessoal a bordo e a segurança da aeronave não sejam postas em perigo.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Pág 76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Cap. 4 - Salvaguarda dos interesses nacionais no mar, em tempo de paz</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Qual é a peculiaridade prevista na Convenção de Chicago quanto à aplicação de suas regras às aeronaves militares?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A Convenção não se aplica às aeronaves militares, **exceto** quanto à obrigação de operarem levando em consideração a segurança da navegação de aeronaves civis.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Pág 76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Cap. 4 - Salvaguarda dos interesses nacionais no mar, em tempo de paz</t>
         </is>
